--- a/m-planification-jnltrav.xlsx
+++ b/m-planification-jnltrav.xlsx
@@ -610,11 +610,6 @@
         <v>× works if there is only very little time left (1 ms) × correctly handles orders that were started because there was time left (2 ms)</v>
       </c>
     </row>
-    <row r="19">
-      <c r="D19" t="str">
-        <v>DONE</v>
-      </c>
-    </row>
     <row r="20">
       <c r="A20" t="str">
         <v>Fix Door Policy</v>
@@ -625,9 +620,6 @@
       <c r="C20" t="str">
         <v>5</v>
       </c>
-      <c r="D20" t="str">
-        <v>DONE</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -734,18 +726,10 @@
         <v>WIP</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="str">
-        <v>DONE</v>
-      </c>
-    </row>
     <row r="31">
       <c r="B31" t="str">
         <v>11/28/25</v>
       </c>
-      <c r="D31" t="str">
-        <v>DONE</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -813,18 +797,10 @@
         <v>DONE</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="str">
-        <v>DONE</v>
-      </c>
-    </row>
     <row r="39">
       <c r="B39" t="str">
         <v>12/5/25</v>
       </c>
-      <c r="D39" t="str">
-        <v>DONE</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -870,28 +846,10 @@
         <v>DONE</v>
       </c>
     </row>
-    <row r="44">
-      <c r="D44" t="str">
-        <v>DONE</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="D45" t="str">
-        <v>DONE</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="D46" t="str">
-        <v>DONE</v>
-      </c>
-    </row>
     <row r="47">
       <c r="B47" t="str">
         <v>12/12/25</v>
       </c>
-      <c r="D47" t="str">
-        <v>DONE</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -948,17 +906,9 @@
         <v>DONE</v>
       </c>
     </row>
-    <row r="53">
-      <c r="D53" t="str">
-        <v>DONE</v>
-      </c>
-    </row>
     <row r="54">
       <c r="B54" t="str">
         <v>12/19/25</v>
-      </c>
-      <c r="D54" t="str">
-        <v>DONE</v>
       </c>
     </row>
     <row r="55">

--- a/m-planification-jnltrav.xlsx
+++ b/m-planification-jnltrav.xlsx
@@ -936,6 +936,22 @@
         <v>space age</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v xml:space="preserve">Fix resistor-color </v>
+      </c>
+      <c r="C57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>book-store</v>
+      </c>
+      <c r="C58" t="str">
+        <v>45</v>
+      </c>
+    </row>
     <row r="62">
       <c r="B62" t="str">
         <v>1/9/26</v>

--- a/m-planification-jnltrav.xlsx
+++ b/m-planification-jnltrav.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -932,6 +932,9 @@
       <c r="C56" t="str">
         <v>20</v>
       </c>
+      <c r="D56" t="str">
+        <v>DONE</v>
+      </c>
       <c r="E56" t="str">
         <v>space age</v>
       </c>
@@ -943,6 +946,9 @@
       <c r="C57" t="str">
         <v>10</v>
       </c>
+      <c r="D57" t="str">
+        <v>DONE</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -951,33 +957,91 @@
       <c r="C58" t="str">
         <v>45</v>
       </c>
+      <c r="D58" t="str">
+        <v>DONE</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>two fer</v>
+      </c>
+      <c r="C59" t="str">
+        <v>10</v>
+      </c>
+      <c r="D59" t="str">
+        <v>DONE</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>enchantements</v>
+      </c>
+      <c r="C60" t="str">
+        <v>20</v>
+      </c>
+      <c r="D60" t="str">
+        <v>DONE</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>appointement-time</v>
+      </c>
+      <c r="C61" t="str">
+        <v>45</v>
+      </c>
+      <c r="D61" t="str">
+        <v>DONE</v>
+      </c>
     </row>
     <row r="62">
-      <c r="B62" t="str">
+      <c r="A62" t="str">
+        <v>Pascals-triangle</v>
+      </c>
+      <c r="C62" t="str">
+        <v>20</v>
+      </c>
+      <c r="D62" t="str">
+        <v>DONE</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>linked-list</v>
+      </c>
+      <c r="C63" t="str">
+        <v>25</v>
+      </c>
+      <c r="D63" t="str">
+        <v>DONE</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="str">
         <v>1/9/26</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="str">
+    <row r="87">
+      <c r="A87" t="str">
         <v>Bilan du jour :</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>Total en heures</v>
-      </c>
-      <c r="C86" t="str">
-        <v>10.8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
+        <v>Total en heures</v>
+      </c>
+      <c r="C88" t="str">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
         <v>Si nécessaire, [ Copier ] &amp; [ Insérer ] un ou des jours supplémentaires avant la ligne du total</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E88"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E90"/>
   </ignoredErrors>
 </worksheet>
 </file>